--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1453,7 +1453,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1461,11 +1460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96938816"/>
-        <c:axId val="89403328"/>
+        <c:axId val="93754432"/>
+        <c:axId val="93755008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96938816"/>
+        <c:axId val="93754432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,12 +1478,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89403328"/>
+        <c:crossAx val="93755008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89403328"/>
+        <c:axId val="93755008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96938816"/>
+        <c:crossAx val="93754432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2241,11 +2240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45208640"/>
-        <c:axId val="50105728"/>
+        <c:axId val="93756736"/>
+        <c:axId val="126492672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45208640"/>
+        <c:axId val="93756736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,12 +2258,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50105728"/>
+        <c:crossAx val="126492672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50105728"/>
+        <c:axId val="126492672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45208640"/>
+        <c:crossAx val="93756736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2312,6 +2311,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>Encoding time over CABAC encoding time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -3001,11 +3015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45209792"/>
-        <c:axId val="92635712"/>
+        <c:axId val="126494400"/>
+        <c:axId val="126494976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45209792"/>
+        <c:axId val="126494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,12 +3033,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92635712"/>
+        <c:crossAx val="126494976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92635712"/>
+        <c:axId val="126494976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45209792"/>
+        <c:crossAx val="126494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3776,11 +3790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92638592"/>
-        <c:axId val="92639168"/>
+        <c:axId val="126496704"/>
+        <c:axId val="126497280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92638592"/>
+        <c:axId val="126496704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,12 +3808,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92639168"/>
+        <c:crossAx val="126497280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92639168"/>
+        <c:axId val="126497280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +3829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92638592"/>
+        <c:crossAx val="126496704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4551,11 +4565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91601088"/>
-        <c:axId val="91601664"/>
+        <c:axId val="126499008"/>
+        <c:axId val="126499584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91601088"/>
+        <c:axId val="126499008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,12 +4583,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91601664"/>
+        <c:crossAx val="126499584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91601664"/>
+        <c:axId val="126499584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4604,782 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91601088"/>
+        <c:crossAx val="126499008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>Encoding time over bits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Z$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encoding time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$X$27:$X$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4465</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2873</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$Z$27:$Z$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.75611399999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95606999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0667819999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.912412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75792599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1218189999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0165740000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.185556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42504900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51717400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0219309999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89526099999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79336499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.297485</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2548950000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.445183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46084900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77623900000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87633000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.026014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63327699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.765405</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88006700000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40200900000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81415300000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98739699999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0948800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99406700000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98218499999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71809299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78044199999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.249692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90194799999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.81042800000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81899500000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92025999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0481659999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87321400000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66856800000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.30028199999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0328029999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66239000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.72407699999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.83044200000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.74848499999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.74543400000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86411800000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34967700000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.15951</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1730959999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.86829599999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.94029300000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.900474</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.73883699999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.80121600000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.292018</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0050699999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.96827200000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.78749199999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96468699999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83034699999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88302800000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.81079599999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.30456899999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.77585400000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0386850000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.080414</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.315394</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.189324</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.90612199999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.956287</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42843599999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.85090900000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.84134200000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.015042</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.96087599999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.87436999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.88937299999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.01729</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.46124799999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.77847599999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.94745100000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82460599999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.74013300000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.971194</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.97000699999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.81950100000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.29560399999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.78734499999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6681189999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.059056</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.88771599999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.95376799999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.81404299999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.74957399999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.32040600000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.66859100000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.68471599999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.59256600000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.828959</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.83358500000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.89743099999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.97600500000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.38361400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="134039808"/>
+        <c:axId val="134043840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134039808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134043840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134039808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4762,6 +5551,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>352550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>176646</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18576,8 +19397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18675,27 +19496,27 @@
         <v>0.42504900000000001</v>
       </c>
       <c r="AF2">
-        <f>F2</f>
+        <f t="shared" ref="AF2:AF9" si="1">F2</f>
         <v>0.46084900000000001</v>
       </c>
       <c r="AG2">
-        <f>H2</f>
+        <f t="shared" ref="AG2:AG9" si="2">H2</f>
         <v>0.81415300000000002</v>
       </c>
       <c r="AH2">
-        <f>J2</f>
+        <f t="shared" ref="AH2:AH9" si="3">J2</f>
         <v>0.90194799999999997</v>
       </c>
       <c r="AI2">
-        <f>L2</f>
+        <f t="shared" ref="AI2:AI9" si="4">L2</f>
         <v>1.0328029999999999</v>
       </c>
       <c r="AJ2">
-        <f>N2</f>
+        <f t="shared" ref="AJ2:AJ9" si="5">N2</f>
         <v>1.15951</v>
       </c>
       <c r="AK2">
-        <f>P2</f>
+        <f t="shared" ref="AK2:AK9" si="6">P2</f>
         <v>1.0050699999999999</v>
       </c>
       <c r="AL2">
@@ -18799,7 +19620,7 @@
         <v>331</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD9" si="1">B3</f>
+        <f t="shared" ref="AD3:AD9" si="7">B3</f>
         <v>0.95606999999999998</v>
       </c>
       <c r="AE3">
@@ -18807,47 +19628,47 @@
         <v>0.51717400000000002</v>
       </c>
       <c r="AF3">
-        <f>F3</f>
+        <f t="shared" si="1"/>
         <v>0.77623900000000001</v>
       </c>
       <c r="AG3">
-        <f>H3</f>
+        <f t="shared" si="2"/>
         <v>0.98739699999999997</v>
       </c>
       <c r="AH3">
-        <f>J3</f>
+        <f t="shared" si="3"/>
         <v>0.81042800000000004</v>
       </c>
       <c r="AI3">
-        <f>L3</f>
+        <f t="shared" si="4"/>
         <v>0.66239000000000003</v>
       </c>
       <c r="AJ3">
-        <f>N3</f>
+        <f t="shared" si="5"/>
         <v>1.1730959999999999</v>
       </c>
       <c r="AK3">
-        <f>P3</f>
+        <f t="shared" si="6"/>
         <v>0.96827200000000002</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL9" si="2">R3</f>
+        <f t="shared" ref="AL3:AL9" si="8">R3</f>
         <v>1.0386850000000001</v>
       </c>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM9" si="3">T3</f>
+        <f t="shared" ref="AM3:AM9" si="9">T3</f>
         <v>0.84134200000000003</v>
       </c>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN9" si="4">V3</f>
+        <f t="shared" ref="AN3:AN9" si="10">V3</f>
         <v>0.94745100000000004</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO9" si="5">X3</f>
+        <f t="shared" ref="AO3:AO9" si="11">X3</f>
         <v>1.6681189999999999</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP9" si="6">Z3</f>
+        <f t="shared" ref="AP3:AP9" si="12">Z3</f>
         <v>0.68471599999999999</v>
       </c>
     </row>
@@ -18931,7 +19752,7 @@
         <v>310</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.0667819999999999</v>
       </c>
       <c r="AE4">
@@ -18939,47 +19760,47 @@
         <v>1.0219309999999999</v>
       </c>
       <c r="AF4">
-        <f>F4</f>
+        <f t="shared" si="1"/>
         <v>0.87633000000000005</v>
       </c>
       <c r="AG4">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>1.0948800000000001</v>
       </c>
       <c r="AH4">
-        <f>J4</f>
+        <f t="shared" si="3"/>
         <v>0.81899500000000003</v>
       </c>
       <c r="AI4">
-        <f>L4</f>
+        <f t="shared" si="4"/>
         <v>0.72407699999999997</v>
       </c>
       <c r="AJ4">
-        <f>N4</f>
+        <f t="shared" si="5"/>
         <v>0.86829599999999996</v>
       </c>
       <c r="AK4">
-        <f>P4</f>
+        <f t="shared" si="6"/>
         <v>0.78749199999999997</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.080414</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.015042</v>
       </c>
       <c r="AN4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.82460599999999995</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.059056</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.59256600000000004</v>
       </c>
     </row>
@@ -19063,7 +19884,7 @@
         <v>674</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.912412</v>
       </c>
       <c r="AE5">
@@ -19071,47 +19892,47 @@
         <v>0.89526099999999997</v>
       </c>
       <c r="AF5">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>1.026014</v>
       </c>
       <c r="AG5">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>0.99406700000000003</v>
       </c>
       <c r="AH5">
-        <f>J5</f>
+        <f t="shared" si="3"/>
         <v>0.92025999999999997</v>
       </c>
       <c r="AI5">
-        <f>L5</f>
+        <f t="shared" si="4"/>
         <v>0.83044200000000001</v>
       </c>
       <c r="AJ5">
-        <f>N5</f>
+        <f t="shared" si="5"/>
         <v>0.94029300000000005</v>
       </c>
       <c r="AK5">
-        <f>P5</f>
+        <f t="shared" si="6"/>
         <v>0.96468699999999996</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.315394</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.96087599999999995</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.74013300000000004</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.88771599999999995</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.828959</v>
       </c>
     </row>
@@ -19195,7 +20016,7 @@
         <v>771</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.75792599999999999</v>
       </c>
       <c r="AE6">
@@ -19203,47 +20024,47 @@
         <v>0.79336499999999999</v>
       </c>
       <c r="AF6">
-        <f>F6</f>
+        <f t="shared" si="1"/>
         <v>0.63327699999999998</v>
       </c>
       <c r="AG6">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>0.98218499999999997</v>
       </c>
       <c r="AH6">
-        <f>J6</f>
+        <f t="shared" si="3"/>
         <v>1.0481659999999999</v>
       </c>
       <c r="AI6">
-        <f>L6</f>
+        <f t="shared" si="4"/>
         <v>0.74848499999999996</v>
       </c>
       <c r="AJ6">
-        <f>N6</f>
+        <f t="shared" si="5"/>
         <v>0.900474</v>
       </c>
       <c r="AK6">
-        <f>P6</f>
+        <f t="shared" si="6"/>
         <v>0.83034699999999995</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.189324</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.87436999999999998</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.971194</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.95376799999999995</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.83358500000000002</v>
       </c>
     </row>
@@ -19327,7 +20148,7 @@
         <v>1567</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.1218189999999999</v>
       </c>
       <c r="AE7">
@@ -19335,47 +20156,47 @@
         <v>1.297485</v>
       </c>
       <c r="AF7">
-        <f>F7</f>
+        <f t="shared" si="1"/>
         <v>0.765405</v>
       </c>
       <c r="AG7">
-        <f>H7</f>
+        <f t="shared" si="2"/>
         <v>0.71809299999999998</v>
       </c>
       <c r="AH7">
-        <f>J7</f>
+        <f t="shared" si="3"/>
         <v>0.87321400000000005</v>
       </c>
       <c r="AI7">
-        <f>L7</f>
+        <f t="shared" si="4"/>
         <v>0.74543400000000004</v>
       </c>
       <c r="AJ7">
-        <f>N7</f>
+        <f t="shared" si="5"/>
         <v>0.73883699999999997</v>
       </c>
       <c r="AK7">
-        <f>P7</f>
+        <f t="shared" si="6"/>
         <v>0.88302800000000004</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.90612199999999998</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.88937299999999997</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.97000699999999995</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.81404299999999996</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.89743099999999998</v>
       </c>
     </row>
@@ -19459,7 +20280,7 @@
         <v>2264</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.0165740000000001</v>
       </c>
       <c r="AE8">
@@ -19467,47 +20288,47 @@
         <v>1.2548950000000001</v>
       </c>
       <c r="AF8">
-        <f>F8</f>
+        <f t="shared" si="1"/>
         <v>0.88006700000000004</v>
       </c>
       <c r="AG8">
-        <f>H8</f>
+        <f t="shared" si="2"/>
         <v>0.78044199999999997</v>
       </c>
       <c r="AH8">
-        <f>J8</f>
+        <f t="shared" si="3"/>
         <v>0.66856800000000005</v>
       </c>
       <c r="AI8">
-        <f>L8</f>
+        <f t="shared" si="4"/>
         <v>0.86411800000000005</v>
       </c>
       <c r="AJ8">
-        <f>N8</f>
+        <f t="shared" si="5"/>
         <v>0.80121600000000004</v>
       </c>
       <c r="AK8">
-        <f>P8</f>
+        <f t="shared" si="6"/>
         <v>0.81079599999999996</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.956287</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.01729</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.81950100000000003</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.74957399999999996</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.97600500000000001</v>
       </c>
     </row>
@@ -19591,7 +20412,7 @@
         <v>948</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.185556</v>
       </c>
       <c r="AE9">
@@ -19599,479 +20420,479 @@
         <v>0.445183</v>
       </c>
       <c r="AF9">
-        <f>F9</f>
+        <f t="shared" si="1"/>
         <v>0.40200900000000001</v>
       </c>
       <c r="AG9">
-        <f>H9</f>
+        <f t="shared" si="2"/>
         <v>0.249692</v>
       </c>
       <c r="AH9">
-        <f>J9</f>
+        <f t="shared" si="3"/>
         <v>0.30028199999999999</v>
       </c>
       <c r="AI9">
-        <f>L9</f>
+        <f t="shared" si="4"/>
         <v>0.34967700000000002</v>
       </c>
       <c r="AJ9">
-        <f>N9</f>
+        <f t="shared" si="5"/>
         <v>0.292018</v>
       </c>
       <c r="AK9">
-        <f>P9</f>
+        <f t="shared" si="6"/>
         <v>0.30456899999999998</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.42843599999999998</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.46124799999999999</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.29560399999999998</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.32040600000000002</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.38361400000000001</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AD12">
-        <f>C2</f>
+        <f t="shared" ref="AD12:AD19" si="13">C2</f>
         <v>729</v>
       </c>
       <c r="AE12">
-        <f>E2</f>
+        <f t="shared" ref="AE12:AE19" si="14">E2</f>
         <v>15</v>
       </c>
       <c r="AF12">
-        <f>G2</f>
+        <f t="shared" ref="AF12:AF19" si="15">G2</f>
         <v>57</v>
       </c>
       <c r="AG12">
-        <f>I2</f>
+        <f t="shared" ref="AG12:AG19" si="16">I2</f>
         <v>961</v>
       </c>
       <c r="AH12">
-        <f>K2</f>
+        <f t="shared" ref="AH12:AH19" si="17">K2</f>
         <v>1546</v>
       </c>
       <c r="AI12">
-        <f>M2</f>
+        <f t="shared" ref="AI12:AI19" si="18">M2</f>
         <v>1655</v>
       </c>
       <c r="AJ12">
-        <f>O2</f>
+        <f t="shared" ref="AJ12:AJ19" si="19">O2</f>
         <v>2756</v>
       </c>
       <c r="AK12">
-        <f>Q2</f>
+        <f t="shared" ref="AK12:AK19" si="20">Q2</f>
         <v>1767</v>
       </c>
       <c r="AL12">
-        <f>S2</f>
+        <f t="shared" ref="AL12:AL19" si="21">S2</f>
         <v>399</v>
       </c>
       <c r="AM12">
-        <f>U2</f>
+        <f t="shared" ref="AM12:AM19" si="22">U2</f>
         <v>697</v>
       </c>
       <c r="AN12">
-        <f>W2</f>
+        <f t="shared" ref="AN12:AN19" si="23">W2</f>
         <v>242</v>
       </c>
       <c r="AO12">
-        <f>Y2</f>
+        <f t="shared" ref="AO12:AO19" si="24">Y2</f>
         <v>628</v>
       </c>
       <c r="AP12">
-        <f>AA2</f>
+        <f t="shared" ref="AP12:AP19" si="25">AA2</f>
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AD13">
-        <f>C3</f>
+        <f t="shared" si="13"/>
         <v>1269</v>
       </c>
       <c r="AE13">
-        <f>E3</f>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="AF13">
-        <f>G3</f>
+        <f t="shared" si="15"/>
         <v>674</v>
       </c>
       <c r="AG13">
-        <f>I3</f>
+        <f t="shared" si="16"/>
         <v>1162</v>
       </c>
       <c r="AH13">
-        <f>K3</f>
+        <f t="shared" si="17"/>
         <v>940</v>
       </c>
       <c r="AI13">
-        <f>M3</f>
+        <f t="shared" si="18"/>
         <v>454</v>
       </c>
       <c r="AJ13">
-        <f>O3</f>
+        <f t="shared" si="19"/>
         <v>3182</v>
       </c>
       <c r="AK13">
-        <f>Q3</f>
+        <f t="shared" si="20"/>
         <v>548</v>
       </c>
       <c r="AL13">
-        <f>S3</f>
+        <f t="shared" si="21"/>
         <v>1179</v>
       </c>
       <c r="AM13">
-        <f>U3</f>
+        <f t="shared" si="22"/>
         <v>1025</v>
       </c>
       <c r="AN13">
-        <f>W3</f>
+        <f t="shared" si="23"/>
         <v>1330</v>
       </c>
       <c r="AO13">
-        <f>Y3</f>
+        <f t="shared" si="24"/>
         <v>1556</v>
       </c>
       <c r="AP13">
-        <f>AA3</f>
+        <f t="shared" si="25"/>
         <v>331</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AD14">
-        <f>C4</f>
+        <f t="shared" si="13"/>
         <v>2121</v>
       </c>
       <c r="AE14">
-        <f>E4</f>
+        <f t="shared" si="14"/>
         <v>1677</v>
       </c>
       <c r="AF14">
-        <f>G4</f>
+        <f t="shared" si="15"/>
         <v>437</v>
       </c>
       <c r="AG14">
-        <f>I4</f>
+        <f t="shared" si="16"/>
         <v>1617</v>
       </c>
       <c r="AH14">
-        <f>K4</f>
+        <f t="shared" si="17"/>
         <v>544</v>
       </c>
       <c r="AI14">
-        <f>M4</f>
+        <f t="shared" si="18"/>
         <v>273</v>
       </c>
       <c r="AJ14">
-        <f>O4</f>
+        <f t="shared" si="19"/>
         <v>749</v>
       </c>
       <c r="AK14">
-        <f>Q4</f>
+        <f t="shared" si="20"/>
         <v>601</v>
       </c>
       <c r="AL14">
-        <f>S4</f>
+        <f t="shared" si="21"/>
         <v>1174</v>
       </c>
       <c r="AM14">
-        <f>U4</f>
+        <f t="shared" si="22"/>
         <v>1641</v>
       </c>
       <c r="AN14">
-        <f>W4</f>
+        <f t="shared" si="23"/>
         <v>483</v>
       </c>
       <c r="AO14">
-        <f>Y4</f>
+        <f t="shared" si="24"/>
         <v>2382</v>
       </c>
       <c r="AP14">
-        <f>AA4</f>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AD15">
-        <f>C5</f>
+        <f t="shared" si="13"/>
         <v>958</v>
       </c>
       <c r="AE15">
-        <f>E5</f>
+        <f t="shared" si="14"/>
         <v>629</v>
       </c>
       <c r="AF15">
-        <f>G5</f>
+        <f t="shared" si="15"/>
         <v>415</v>
       </c>
       <c r="AG15">
-        <f>I5</f>
+        <f t="shared" si="16"/>
         <v>1289</v>
       </c>
       <c r="AH15">
-        <f>K5</f>
+        <f t="shared" si="17"/>
         <v>1600</v>
       </c>
       <c r="AI15">
-        <f>M5</f>
+        <f t="shared" si="18"/>
         <v>593</v>
       </c>
       <c r="AJ15">
-        <f>O5</f>
+        <f t="shared" si="19"/>
         <v>857</v>
       </c>
       <c r="AK15">
-        <f>Q5</f>
+        <f t="shared" si="20"/>
         <v>1103</v>
       </c>
       <c r="AL15">
-        <f>S5</f>
+        <f t="shared" si="21"/>
         <v>4465</v>
       </c>
       <c r="AM15">
-        <f>U5</f>
+        <f t="shared" si="22"/>
         <v>1914</v>
       </c>
       <c r="AN15">
-        <f>W5</f>
+        <f t="shared" si="23"/>
         <v>189</v>
       </c>
       <c r="AO15">
-        <f>Y5</f>
+        <f t="shared" si="24"/>
         <v>880</v>
       </c>
       <c r="AP15">
-        <f>AA5</f>
+        <f t="shared" si="25"/>
         <v>674</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AD16">
-        <f>C6</f>
+        <f t="shared" si="13"/>
         <v>295</v>
       </c>
       <c r="AE16">
-        <f>E6</f>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
       <c r="AF16">
-        <f>G6</f>
+        <f t="shared" si="15"/>
         <v>143</v>
       </c>
       <c r="AG16">
-        <f>I6</f>
+        <f t="shared" si="16"/>
         <v>1437</v>
       </c>
       <c r="AH16">
-        <f>K6</f>
+        <f t="shared" si="17"/>
         <v>1508</v>
       </c>
       <c r="AI16">
-        <f>M6</f>
+        <f t="shared" si="18"/>
         <v>677</v>
       </c>
       <c r="AJ16">
-        <f>O6</f>
+        <f t="shared" si="19"/>
         <v>768</v>
       </c>
       <c r="AK16">
-        <f>Q6</f>
+        <f t="shared" si="20"/>
         <v>454</v>
       </c>
       <c r="AL16">
-        <f>S6</f>
+        <f t="shared" si="21"/>
         <v>2873</v>
       </c>
       <c r="AM16">
-        <f>U6</f>
+        <f t="shared" si="22"/>
         <v>1473</v>
       </c>
       <c r="AN16">
-        <f>W6</f>
+        <f t="shared" si="23"/>
         <v>1353</v>
       </c>
       <c r="AO16">
-        <f>Y6</f>
+        <f t="shared" si="24"/>
         <v>1726</v>
       </c>
       <c r="AP16">
-        <f>AA6</f>
+        <f t="shared" si="25"/>
         <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="AD17">
-        <f>C7</f>
+        <f t="shared" si="13"/>
         <v>3422</v>
       </c>
       <c r="AE17">
-        <f>E7</f>
+        <f t="shared" si="14"/>
         <v>4650</v>
       </c>
       <c r="AF17">
-        <f>G7</f>
+        <f t="shared" si="15"/>
         <v>548</v>
       </c>
       <c r="AG17">
-        <f>I7</f>
+        <f t="shared" si="16"/>
         <v>371</v>
       </c>
       <c r="AH17">
-        <f>K7</f>
+        <f t="shared" si="17"/>
         <v>1206</v>
       </c>
       <c r="AI17">
-        <f>M7</f>
+        <f t="shared" si="18"/>
         <v>483</v>
       </c>
       <c r="AJ17">
-        <f>O7</f>
+        <f t="shared" si="19"/>
         <v>346</v>
       </c>
       <c r="AK17">
-        <f>Q7</f>
+        <f t="shared" si="20"/>
         <v>790</v>
       </c>
       <c r="AL17">
-        <f>S7</f>
+        <f t="shared" si="21"/>
         <v>542</v>
       </c>
       <c r="AM17">
-        <f>U7</f>
+        <f t="shared" si="22"/>
         <v>810</v>
       </c>
       <c r="AN17">
-        <f>W7</f>
+        <f t="shared" si="23"/>
         <v>945</v>
       </c>
       <c r="AO17">
-        <f>Y7</f>
+        <f t="shared" si="24"/>
         <v>422</v>
       </c>
       <c r="AP17">
-        <f>AA7</f>
+        <f t="shared" si="25"/>
         <v>1567</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="AD18">
-        <f>C8</f>
+        <f t="shared" si="13"/>
         <v>2391</v>
       </c>
       <c r="AE18">
-        <f>E8</f>
+        <f t="shared" si="14"/>
         <v>4278</v>
       </c>
       <c r="AF18">
-        <f>G8</f>
+        <f t="shared" si="15"/>
         <v>1096</v>
       </c>
       <c r="AG18">
-        <f>I8</f>
+        <f t="shared" si="16"/>
         <v>477</v>
       </c>
       <c r="AH18">
-        <f>K8</f>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
       <c r="AI18">
-        <f>M8</f>
+        <f t="shared" si="18"/>
         <v>680</v>
       </c>
       <c r="AJ18">
-        <f>O8</f>
+        <f t="shared" si="19"/>
         <v>761</v>
       </c>
       <c r="AK18">
-        <f>Q8</f>
+        <f t="shared" si="20"/>
         <v>940</v>
       </c>
       <c r="AL18">
-        <f>S8</f>
+        <f t="shared" si="21"/>
         <v>438</v>
       </c>
       <c r="AM18">
-        <f>U8</f>
+        <f t="shared" si="22"/>
         <v>1226</v>
       </c>
       <c r="AN18">
-        <f>W8</f>
+        <f t="shared" si="23"/>
         <v>668</v>
       </c>
       <c r="AO18">
-        <f>Y8</f>
+        <f t="shared" si="24"/>
         <v>291</v>
       </c>
       <c r="AP18">
-        <f>AA8</f>
+        <f t="shared" si="25"/>
         <v>2264</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="AD19">
-        <f>C9</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="AE19">
-        <f>E9</f>
+        <f t="shared" si="14"/>
         <v>1083</v>
       </c>
       <c r="AF19">
-        <f>G9</f>
+        <f t="shared" si="15"/>
         <v>695</v>
       </c>
       <c r="AG19">
-        <f>I9</f>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="AH19">
-        <f>K9</f>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="AI19">
-        <f>M9</f>
+        <f t="shared" si="18"/>
         <v>268</v>
       </c>
       <c r="AJ19">
-        <f>O9</f>
+        <f t="shared" si="19"/>
         <v>358</v>
       </c>
       <c r="AK19">
-        <f>Q9</f>
+        <f t="shared" si="20"/>
         <v>136</v>
       </c>
       <c r="AL19">
-        <f>S9</f>
+        <f t="shared" si="21"/>
         <v>368</v>
       </c>
       <c r="AM19">
-        <f>U9</f>
+        <f t="shared" si="22"/>
         <v>1262</v>
       </c>
       <c r="AN19">
-        <f>W9</f>
+        <f t="shared" si="23"/>
         <v>281</v>
       </c>
       <c r="AO19">
-        <f>Y9</f>
+        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="AP19">
-        <f>AA9</f>
+        <f t="shared" si="25"/>
         <v>948</v>
       </c>
     </row>
@@ -20219,7 +21040,7 @@
         <v>62</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:R35" si="7">A29</f>
+        <f t="shared" ref="R29:R35" si="26">A29</f>
         <v>1269</v>
       </c>
       <c r="X29">
@@ -20282,7 +21103,7 @@
         <v>62</v>
       </c>
       <c r="R30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>2121</v>
       </c>
       <c r="X30">
@@ -20345,7 +21166,7 @@
         <v>62</v>
       </c>
       <c r="R31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>958</v>
       </c>
       <c r="X31">
@@ -20408,7 +21229,7 @@
         <v>62</v>
       </c>
       <c r="R32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>295</v>
       </c>
       <c r="X32">
@@ -20471,7 +21292,7 @@
         <v>62</v>
       </c>
       <c r="R33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>3422</v>
       </c>
       <c r="X33">
@@ -20534,7 +21355,7 @@
         <v>62</v>
       </c>
       <c r="R34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>2391</v>
       </c>
       <c r="X34">
@@ -20597,7 +21418,7 @@
         <v>62</v>
       </c>
       <c r="R35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
       <c r="X35">
@@ -20618,7 +21439,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="R36">
-        <f>B28</f>
+        <f t="shared" ref="R36:R43" si="27">B28</f>
         <v>15</v>
       </c>
       <c r="X36">
@@ -20639,7 +21460,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="R37">
-        <f>B29</f>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
       <c r="X37">
@@ -20663,7 +21484,7 @@
         <v>1.2179999999999999E-3</v>
       </c>
       <c r="R38">
-        <f>B30</f>
+        <f t="shared" si="27"/>
         <v>1677</v>
       </c>
       <c r="X38">
@@ -20687,7 +21508,7 @@
         <v>1.127E-3</v>
       </c>
       <c r="R39">
-        <f>B31</f>
+        <f t="shared" si="27"/>
         <v>629</v>
       </c>
       <c r="X39">
@@ -20711,7 +21532,7 @@
         <v>1.2199999999999999E-3</v>
       </c>
       <c r="R40">
-        <f>B32</f>
+        <f t="shared" si="27"/>
         <v>312</v>
       </c>
       <c r="X40">
@@ -20735,7 +21556,7 @@
         <v>1.0679999999999999E-3</v>
       </c>
       <c r="R41">
-        <f>B33</f>
+        <f t="shared" si="27"/>
         <v>4650</v>
       </c>
       <c r="X41">
@@ -20759,7 +21580,7 @@
         <v>8.1599999999999999E-4</v>
       </c>
       <c r="R42">
-        <f>B34</f>
+        <f t="shared" si="27"/>
         <v>4278</v>
       </c>
       <c r="X42">
@@ -20783,7 +21604,7 @@
         <v>1.2979999999999999E-3</v>
       </c>
       <c r="R43">
-        <f>B35</f>
+        <f t="shared" si="27"/>
         <v>1083</v>
       </c>
       <c r="X43">
@@ -20807,7 +21628,7 @@
         <v>1.1540000000000001E-3</v>
       </c>
       <c r="R44">
-        <f>C28</f>
+        <f t="shared" ref="R44:R51" si="28">C28</f>
         <v>57</v>
       </c>
       <c r="X44">
@@ -20831,7 +21652,7 @@
         <v>4.2099999999999999E-4</v>
       </c>
       <c r="R45">
-        <f>C29</f>
+        <f t="shared" si="28"/>
         <v>674</v>
       </c>
       <c r="X45">
@@ -20855,7 +21676,7 @@
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="R46">
-        <f>C30</f>
+        <f t="shared" si="28"/>
         <v>437</v>
       </c>
       <c r="X46">
@@ -20879,7 +21700,7 @@
         <v>4.1399999999999998E-4</v>
       </c>
       <c r="R47">
-        <f>C31</f>
+        <f t="shared" si="28"/>
         <v>415</v>
       </c>
       <c r="X47">
@@ -20903,7 +21724,7 @@
         <v>9.7199999999999999E-4</v>
       </c>
       <c r="R48">
-        <f>C32</f>
+        <f t="shared" si="28"/>
         <v>143</v>
       </c>
       <c r="X48">
@@ -20927,7 +21748,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="R49">
-        <f>C33</f>
+        <f t="shared" si="28"/>
         <v>548</v>
       </c>
       <c r="X49">
@@ -20951,7 +21772,7 @@
         <v>6.1700000000000004E-4</v>
       </c>
       <c r="R50">
-        <f>C34</f>
+        <f t="shared" si="28"/>
         <v>1096</v>
       </c>
       <c r="X50">
@@ -20975,7 +21796,7 @@
         <v>1.4519999999999999E-3</v>
       </c>
       <c r="R51">
-        <f>C35</f>
+        <f t="shared" si="28"/>
         <v>695</v>
       </c>
       <c r="X51">
@@ -20999,7 +21820,7 @@
         <v>1.4890000000000001E-3</v>
       </c>
       <c r="R52">
-        <f>D28</f>
+        <f t="shared" ref="R52:R59" si="29">D28</f>
         <v>961</v>
       </c>
       <c r="X52">
@@ -21023,7 +21844,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
       <c r="R53">
-        <f>D29</f>
+        <f t="shared" si="29"/>
         <v>1162</v>
       </c>
       <c r="X53">
@@ -21047,7 +21868,7 @@
         <v>4.7100000000000001E-4</v>
       </c>
       <c r="R54">
-        <f>D30</f>
+        <f t="shared" si="29"/>
         <v>1617</v>
       </c>
       <c r="X54">
@@ -21071,7 +21892,7 @@
         <v>6.9800000000000005E-4</v>
       </c>
       <c r="R55">
-        <f>D31</f>
+        <f t="shared" si="29"/>
         <v>1289</v>
       </c>
       <c r="X55">
@@ -21095,7 +21916,7 @@
         <v>6.8300000000000001E-4</v>
       </c>
       <c r="R56">
-        <f>D32</f>
+        <f t="shared" si="29"/>
         <v>1437</v>
       </c>
       <c r="X56">
@@ -21119,7 +21940,7 @@
         <v>6.3299999999999999E-4</v>
       </c>
       <c r="R57">
-        <f>D33</f>
+        <f t="shared" si="29"/>
         <v>371</v>
       </c>
       <c r="X57">
@@ -21143,7 +21964,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="R58">
-        <f>D34</f>
+        <f t="shared" si="29"/>
         <v>477</v>
       </c>
       <c r="X58">
@@ -21167,7 +21988,7 @@
         <v>7.6199999999999998E-4</v>
       </c>
       <c r="R59">
-        <f>D35</f>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
       <c r="X59">
@@ -21191,7 +22012,7 @@
         <v>7.5699999999999997E-4</v>
       </c>
       <c r="R60">
-        <f>E28</f>
+        <f t="shared" ref="R60:R67" si="30">E28</f>
         <v>1546</v>
       </c>
       <c r="X60">
@@ -21215,7 +22036,7 @@
         <v>5.0199999999999995E-4</v>
       </c>
       <c r="R61">
-        <f>E29</f>
+        <f t="shared" si="30"/>
         <v>940</v>
       </c>
       <c r="X61">
@@ -21239,7 +22060,7 @@
         <v>7.4899999999999999E-4</v>
       </c>
       <c r="R62">
-        <f>E30</f>
+        <f t="shared" si="30"/>
         <v>544</v>
       </c>
       <c r="X62">
@@ -21263,7 +22084,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="R63">
-        <f>E31</f>
+        <f t="shared" si="30"/>
         <v>1600</v>
       </c>
       <c r="X63">
@@ -21287,7 +22108,7 @@
         <v>9.6500000000000004E-4</v>
       </c>
       <c r="R64">
-        <f>E32</f>
+        <f t="shared" si="30"/>
         <v>1508</v>
       </c>
       <c r="X64">
@@ -21311,7 +22132,7 @@
         <v>8.1300000000000003E-4</v>
       </c>
       <c r="R65">
-        <f>E33</f>
+        <f t="shared" si="30"/>
         <v>1206</v>
       </c>
       <c r="X65">
@@ -21335,7 +22156,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="R66">
-        <f>E34</f>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="X66">
@@ -21359,7 +22180,7 @@
         <v>7.0600000000000003E-4</v>
       </c>
       <c r="R67">
-        <f>E35</f>
+        <f t="shared" si="30"/>
         <v>76</v>
       </c>
       <c r="X67">
@@ -21383,7 +22204,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="R68">
-        <f>F28</f>
+        <f t="shared" ref="R68:R75" si="31">F28</f>
         <v>1655</v>
       </c>
       <c r="X68">
@@ -21407,7 +22228,7 @@
         <v>3.3199999999999999E-4</v>
       </c>
       <c r="R69">
-        <f>F29</f>
+        <f t="shared" si="31"/>
         <v>454</v>
       </c>
       <c r="X69">
@@ -21431,7 +22252,7 @@
         <v>8.52E-4</v>
       </c>
       <c r="R70">
-        <f>F30</f>
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
       <c r="X70">
@@ -21455,7 +22276,7 @@
         <v>8.8000000000000003E-4</v>
       </c>
       <c r="R71">
-        <f>F31</f>
+        <f t="shared" si="31"/>
         <v>593</v>
       </c>
       <c r="X71">
@@ -21479,7 +22300,7 @@
         <v>7.6499999999999995E-4</v>
       </c>
       <c r="R72">
-        <f>F32</f>
+        <f t="shared" si="31"/>
         <v>677</v>
       </c>
       <c r="X72">
@@ -21503,7 +22324,7 @@
         <v>9.9200000000000004E-4</v>
       </c>
       <c r="R73">
-        <f>F33</f>
+        <f t="shared" si="31"/>
         <v>483</v>
       </c>
       <c r="X73">
@@ -21527,7 +22348,7 @@
         <v>1.026E-3</v>
       </c>
       <c r="R74">
-        <f>F34</f>
+        <f t="shared" si="31"/>
         <v>680</v>
       </c>
       <c r="X74">
@@ -21551,7 +22372,7 @@
         <v>8.8699999999999998E-4</v>
       </c>
       <c r="R75">
-        <f>F35</f>
+        <f t="shared" si="31"/>
         <v>268</v>
       </c>
       <c r="X75">
@@ -21575,7 +22396,7 @@
         <v>7.2400000000000003E-4</v>
       </c>
       <c r="R76">
-        <f>G28</f>
+        <f t="shared" ref="R76:R83" si="32">G28</f>
         <v>2756</v>
       </c>
       <c r="X76">
@@ -21599,7 +22420,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
       <c r="R77">
-        <f>G29</f>
+        <f t="shared" si="32"/>
         <v>3182</v>
       </c>
       <c r="X77">
@@ -21623,7 +22444,7 @@
         <v>1.0740000000000001E-3</v>
       </c>
       <c r="R78">
-        <f>G30</f>
+        <f t="shared" si="32"/>
         <v>749</v>
       </c>
       <c r="X78">
@@ -21647,7 +22468,7 @@
         <v>6.4700000000000001E-4</v>
       </c>
       <c r="R79">
-        <f>G31</f>
+        <f t="shared" si="32"/>
         <v>857</v>
       </c>
       <c r="X79">
@@ -21671,7 +22492,7 @@
         <v>6.0700000000000001E-4</v>
       </c>
       <c r="R80">
-        <f>G32</f>
+        <f t="shared" si="32"/>
         <v>768</v>
       </c>
       <c r="X80">
@@ -21695,7 +22516,7 @@
         <v>8.1899999999999996E-4</v>
       </c>
       <c r="R81">
-        <f>G33</f>
+        <f t="shared" si="32"/>
         <v>346</v>
       </c>
       <c r="X81">
@@ -21719,7 +22540,7 @@
         <v>7.8100000000000001E-4</v>
       </c>
       <c r="R82">
-        <f>G34</f>
+        <f t="shared" si="32"/>
         <v>761</v>
       </c>
       <c r="X82">
@@ -21743,7 +22564,7 @@
         <v>6.96E-4</v>
       </c>
       <c r="R83">
-        <f>G35</f>
+        <f t="shared" si="32"/>
         <v>358</v>
       </c>
       <c r="X83">
@@ -21767,7 +22588,7 @@
         <v>7.3300000000000004E-4</v>
       </c>
       <c r="R84">
-        <f>H28</f>
+        <f t="shared" ref="R84:R91" si="33">H28</f>
         <v>1767</v>
       </c>
       <c r="X84">
@@ -21791,7 +22612,7 @@
         <v>3.48E-4</v>
       </c>
       <c r="R85">
-        <f>H29</f>
+        <f t="shared" si="33"/>
         <v>548</v>
       </c>
       <c r="X85">
@@ -21815,7 +22636,7 @@
         <v>1.0950000000000001E-3</v>
       </c>
       <c r="R86">
-        <f>H30</f>
+        <f t="shared" si="33"/>
         <v>601</v>
       </c>
       <c r="X86">
@@ -21839,7 +22660,7 @@
         <v>1.2669999999999999E-3</v>
       </c>
       <c r="R87">
-        <f>H31</f>
+        <f t="shared" si="33"/>
         <v>1103</v>
       </c>
       <c r="X87">
@@ -21863,7 +22684,7 @@
         <v>7.3700000000000002E-4</v>
       </c>
       <c r="R88">
-        <f>H32</f>
+        <f t="shared" si="33"/>
         <v>454</v>
       </c>
       <c r="X88">
@@ -21887,7 +22708,7 @@
         <v>8.4099999999999995E-4</v>
       </c>
       <c r="R89">
-        <f>H33</f>
+        <f t="shared" si="33"/>
         <v>790</v>
       </c>
       <c r="X89">
@@ -21911,7 +22732,7 @@
         <v>8.25E-4</v>
       </c>
       <c r="R90">
-        <f>H34</f>
+        <f t="shared" si="33"/>
         <v>940</v>
       </c>
       <c r="X90">
@@ -21935,7 +22756,7 @@
         <v>6.7299999999999999E-4</v>
       </c>
       <c r="R91">
-        <f>H35</f>
+        <f t="shared" si="33"/>
         <v>136</v>
       </c>
       <c r="X91">
@@ -21959,7 +22780,7 @@
         <v>8.1899999999999996E-4</v>
       </c>
       <c r="R92">
-        <f>I28</f>
+        <f t="shared" ref="R92:R99" si="34">I28</f>
         <v>399</v>
       </c>
       <c r="X92">
@@ -21983,7 +22804,7 @@
         <v>4.9899999999999999E-4</v>
       </c>
       <c r="R93">
-        <f>I29</f>
+        <f t="shared" si="34"/>
         <v>1179</v>
       </c>
       <c r="X93">
@@ -22007,7 +22828,7 @@
         <v>8.92E-4</v>
       </c>
       <c r="R94">
-        <f>I30</f>
+        <f t="shared" si="34"/>
         <v>1174</v>
       </c>
       <c r="X94">
@@ -22031,7 +22852,7 @@
         <v>6.8800000000000003E-4</v>
       </c>
       <c r="R95">
-        <f>I31</f>
+        <f t="shared" si="34"/>
         <v>4465</v>
       </c>
       <c r="X95">
@@ -22055,7 +22876,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
       <c r="R96">
-        <f>I32</f>
+        <f t="shared" si="34"/>
         <v>2873</v>
       </c>
       <c r="X96">
@@ -22079,7 +22900,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
       <c r="R97">
-        <f>I33</f>
+        <f t="shared" si="34"/>
         <v>542</v>
       </c>
       <c r="X97">
@@ -22103,7 +22924,7 @@
         <v>7.4799999999999997E-4</v>
       </c>
       <c r="R98">
-        <f>I34</f>
+        <f t="shared" si="34"/>
         <v>438</v>
       </c>
       <c r="X98">
@@ -22127,7 +22948,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
       <c r="R99">
-        <f>I35</f>
+        <f t="shared" si="34"/>
         <v>368</v>
       </c>
       <c r="X99">
@@ -22151,7 +22972,7 @@
         <v>7.2300000000000001E-4</v>
       </c>
       <c r="R100">
-        <f>J28</f>
+        <f t="shared" ref="R100:R107" si="35">J28</f>
         <v>697</v>
       </c>
       <c r="X100">
@@ -22175,7 +22996,7 @@
         <v>4.1899999999999999E-4</v>
       </c>
       <c r="R101">
-        <f>J29</f>
+        <f t="shared" si="35"/>
         <v>1025</v>
       </c>
       <c r="X101">
@@ -22199,7 +23020,7 @@
         <v>5.3899999999999998E-4</v>
       </c>
       <c r="R102">
-        <f>J30</f>
+        <f t="shared" si="35"/>
         <v>1641</v>
       </c>
       <c r="X102">
@@ -22223,7 +23044,7 @@
         <v>8.52E-4</v>
       </c>
       <c r="R103">
-        <f>J31</f>
+        <f t="shared" si="35"/>
         <v>1914</v>
       </c>
       <c r="X103">
@@ -22247,7 +23068,7 @@
         <v>9.9400000000000009E-4</v>
       </c>
       <c r="R104">
-        <f>J32</f>
+        <f t="shared" si="35"/>
         <v>1473</v>
       </c>
       <c r="X104">
@@ -22271,7 +23092,7 @@
         <v>1.5089999999999999E-3</v>
       </c>
       <c r="R105">
-        <f>J33</f>
+        <f t="shared" si="35"/>
         <v>810</v>
       </c>
       <c r="X105">
@@ -22295,7 +23116,7 @@
         <v>1.16E-3</v>
       </c>
       <c r="R106">
-        <f>J34</f>
+        <f t="shared" si="35"/>
         <v>1226</v>
       </c>
       <c r="X106">
@@ -22319,7 +23140,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="R107">
-        <f>J35</f>
+        <f t="shared" si="35"/>
         <v>1262</v>
       </c>
       <c r="X107">
@@ -22343,7 +23164,7 @@
         <v>6.8099999999999996E-4</v>
       </c>
       <c r="R108">
-        <f>K28</f>
+        <f t="shared" ref="R108:R115" si="36">K28</f>
         <v>242</v>
       </c>
       <c r="X108">
@@ -22367,7 +23188,7 @@
         <v>4.0200000000000001E-4</v>
       </c>
       <c r="R109">
-        <f>K29</f>
+        <f t="shared" si="36"/>
         <v>1330</v>
       </c>
       <c r="X109">
@@ -22391,7 +23212,7 @@
         <v>8.7699999999999996E-4</v>
       </c>
       <c r="R110">
-        <f>K30</f>
+        <f t="shared" si="36"/>
         <v>483</v>
       </c>
       <c r="X110">
@@ -22415,7 +23236,7 @@
         <v>8.5099999999999998E-4</v>
       </c>
       <c r="R111">
-        <f>K31</f>
+        <f t="shared" si="36"/>
         <v>189</v>
       </c>
       <c r="X111">
@@ -22439,7 +23260,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="R112">
-        <f>K32</f>
+        <f t="shared" si="36"/>
         <v>1353</v>
       </c>
       <c r="X112">
@@ -22463,7 +23284,7 @@
         <v>9.7400000000000004E-4</v>
       </c>
       <c r="R113">
-        <f>K33</f>
+        <f t="shared" si="36"/>
         <v>945</v>
       </c>
       <c r="X113">
@@ -22487,7 +23308,7 @@
         <v>8.7399999999999999E-4</v>
       </c>
       <c r="R114">
-        <f>K34</f>
+        <f t="shared" si="36"/>
         <v>668</v>
       </c>
       <c r="X114">
@@ -22511,7 +23332,7 @@
         <v>7.5799999999999999E-4</v>
       </c>
       <c r="R115">
-        <f>K35</f>
+        <f t="shared" si="36"/>
         <v>281</v>
       </c>
       <c r="X115">
@@ -22535,7 +23356,7 @@
         <v>8.6300000000000005E-4</v>
       </c>
       <c r="R116">
-        <f>L28</f>
+        <f t="shared" ref="R116:R123" si="37">L28</f>
         <v>628</v>
       </c>
       <c r="X116">
@@ -22559,7 +23380,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
       <c r="R117">
-        <f>L29</f>
+        <f t="shared" si="37"/>
         <v>1556</v>
       </c>
       <c r="X117">
@@ -22583,7 +23404,7 @@
         <v>6.4599999999999998E-4</v>
       </c>
       <c r="R118">
-        <f>L30</f>
+        <f t="shared" si="37"/>
         <v>2382</v>
       </c>
       <c r="X118">
@@ -22607,7 +23428,7 @@
         <v>8.4800000000000001E-4</v>
       </c>
       <c r="R119">
-        <f>L31</f>
+        <f t="shared" si="37"/>
         <v>880</v>
       </c>
       <c r="X119">
@@ -22631,7 +23452,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="R120">
-        <f>L32</f>
+        <f t="shared" si="37"/>
         <v>1726</v>
       </c>
       <c r="X120">
@@ -22655,7 +23476,7 @@
         <v>5.8E-4</v>
       </c>
       <c r="R121">
-        <f>L33</f>
+        <f t="shared" si="37"/>
         <v>422</v>
       </c>
       <c r="X121">
@@ -22679,7 +23500,7 @@
         <v>9.6199999999999996E-4</v>
       </c>
       <c r="R122">
-        <f>L34</f>
+        <f t="shared" si="37"/>
         <v>291</v>
       </c>
       <c r="X122">
@@ -22703,7 +23524,7 @@
         <v>8.9700000000000001E-4</v>
       </c>
       <c r="R123">
-        <f>L35</f>
+        <f t="shared" si="37"/>
         <v>97</v>
       </c>
       <c r="X123">
@@ -22727,7 +23548,7 @@
         <v>7.0299999999999996E-4</v>
       </c>
       <c r="R124">
-        <f>M28</f>
+        <f t="shared" ref="R124:R131" si="38">M28</f>
         <v>280</v>
       </c>
       <c r="X124">
@@ -22751,7 +23572,7 @@
         <v>4.0299999999999998E-4</v>
       </c>
       <c r="R125">
-        <f>M29</f>
+        <f t="shared" si="38"/>
         <v>331</v>
       </c>
       <c r="X125">
@@ -22775,7 +23596,7 @@
         <v>7.45E-4</v>
       </c>
       <c r="R126">
-        <f>M30</f>
+        <f t="shared" si="38"/>
         <v>310</v>
       </c>
       <c r="X126">
@@ -22799,7 +23620,7 @@
         <v>9.6500000000000004E-4</v>
       </c>
       <c r="R127">
-        <f>M31</f>
+        <f t="shared" si="38"/>
         <v>674</v>
       </c>
       <c r="X127">
@@ -22823,7 +23644,7 @@
         <v>1.0579999999999999E-3</v>
       </c>
       <c r="R128">
-        <f>M32</f>
+        <f t="shared" si="38"/>
         <v>771</v>
       </c>
       <c r="X128">
@@ -22847,7 +23668,7 @@
         <v>7.7899999999999996E-4</v>
       </c>
       <c r="R129">
-        <f>M33</f>
+        <f t="shared" si="38"/>
         <v>1567</v>
       </c>
       <c r="X129">
@@ -22871,7 +23692,7 @@
         <v>9.7900000000000005E-4</v>
       </c>
       <c r="R130">
-        <f>M34</f>
+        <f t="shared" si="38"/>
         <v>2264</v>
       </c>
       <c r="X130">
@@ -22895,7 +23716,7 @@
         <v>6.8800000000000003E-4</v>
       </c>
       <c r="R131">
-        <f>M35</f>
+        <f t="shared" si="38"/>
         <v>948</v>
       </c>
     </row>
